--- a/graphcase_experiments/graphs/enron/data/jobtitles_creamer.xlsx
+++ b/graphcase_experiments/graphs/enron/data/jobtitles_creamer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonpoppe/workspace/graphcase_experiments/graphcase_experiments/graphcase_experiments/graphs/enron/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB346DE-9793-3547-BD42-E0916D9B539C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9123563C-6185-344B-BF81-841E5679F185}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3320" yWindow="500" windowWidth="20800" windowHeight="17300" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="25040" windowHeight="17300" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1323,9 +1323,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1338,6 +1335,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2191,7 +2191,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBB390DD-3709-D641-9DA5-81FB4C2B8898}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBB390DD-3709-D641-9DA5-81FB4C2B8898}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -2604,7 +2604,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B3" t="s">
@@ -2615,10 +2615,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>13</v>
       </c>
       <c r="C4">
@@ -2626,10 +2626,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>9</v>
       </c>
       <c r="C5">
@@ -2637,10 +2637,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>22</v>
       </c>
       <c r="C6">
@@ -2648,10 +2648,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>14</v>
       </c>
       <c r="C7">
@@ -2659,10 +2659,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>3</v>
       </c>
       <c r="C8">
@@ -2670,10 +2670,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>15</v>
       </c>
       <c r="C9">
@@ -2681,10 +2681,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>7</v>
       </c>
       <c r="C10">
@@ -2692,10 +2692,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>35</v>
       </c>
       <c r="C11">
@@ -2703,10 +2703,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>23</v>
       </c>
       <c r="C12">
@@ -2714,18 +2714,18 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>149</v>
       </c>
       <c r="C14">
@@ -2741,7 +2741,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2812,7 +2811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="2" spans="1:18" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>63.12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="3" spans="1:18" ht="14.25" customHeight="1">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>60.35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="4" spans="1:18" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>52.17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>50.65</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>44.19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>43.08</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="8" spans="1:18" ht="14.25" customHeight="1">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3168,7 +3167,7 @@
         <f t="shared" si="0"/>
         <v>mike grigsby</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D8" t="s">
@@ -3218,7 +3217,7 @@
         <v>42.55</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="9" spans="1:18" ht="14.25" customHeight="1">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="10" spans="1:18" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>41.51</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:18" ht="14.25" customHeight="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3342,7 +3341,7 @@
         <f t="shared" si="0"/>
         <v>jeff dasovich</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D11" t="s">
@@ -3392,7 +3391,7 @@
         <v>39.83</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" spans="1:18" ht="14.25" customHeight="1">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3400,7 +3399,7 @@
         <f t="shared" si="0"/>
         <v>kevin hyatt</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D12" t="s">
@@ -3450,7 +3449,7 @@
         <v>34.96</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:18" ht="14.25" customHeight="1">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:18" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>33.909999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:18" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>30.74</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:18" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3682,8 +3681,8 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>178</v>
       </c>
       <c r="B17" t="str">
@@ -3740,8 +3739,8 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B18" t="str">
@@ -3798,8 +3797,8 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>180</v>
       </c>
       <c r="B19" t="str">
@@ -3857,7 +3856,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="20" spans="1:18" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" spans="1:18" ht="14.25" customHeight="1">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" spans="1:18" ht="14.25" customHeight="1">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>27.43</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="23" spans="1:18" ht="14.25" customHeight="1">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" spans="1:18" ht="14.25" customHeight="1">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="25" spans="1:18" ht="14.25" customHeight="1">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>26.13</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" spans="1:18" ht="14.25" customHeight="1">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="C26" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E26" t="str">
@@ -4263,7 +4262,7 @@
         <v>25.85</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" spans="1:18" ht="14.25" customHeight="1">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>25.11</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" spans="1:18" ht="14.25" customHeight="1">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>24.65</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" spans="1:18" ht="14.25" customHeight="1">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>24.14</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:18" ht="14.25" customHeight="1">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:18" ht="14.25" customHeight="1">
       <c r="A32" t="s">
         <v>196</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="33" spans="1:18" ht="14.25" customHeight="1">
       <c r="A33" t="s">
         <v>195</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>23.59</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="34" spans="1:18" ht="14.25" customHeight="1">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -4727,7 +4726,7 @@
         <v>23.58</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="35" spans="1:18" ht="14.25" customHeight="1">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:18" ht="14.25" customHeight="1">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="37" spans="1:18" ht="14.25" customHeight="1">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>22.65</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="38" spans="1:18" ht="14.25" customHeight="1">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="39" spans="1:18" ht="14.25" customHeight="1">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>22.51</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="40" spans="1:18" ht="14.25" customHeight="1">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:18" ht="14.25" customHeight="1">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>22.18</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:18" ht="14.25" customHeight="1">
       <c r="A42" t="s">
         <v>197</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>22.07</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:18" ht="14.25" customHeight="1">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>21.89</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="44" spans="1:18" ht="14.25" customHeight="1">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" spans="1:18" ht="14.25" customHeight="1">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="46" spans="1:18" ht="14.25" customHeight="1">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>20.69</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="47" spans="1:18" ht="14.25" customHeight="1">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" spans="1:18" ht="14.25" customHeight="1">
       <c r="A48" t="s">
         <v>199</v>
       </c>
@@ -5539,7 +5538,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="49" spans="1:18" ht="14.25" customHeight="1">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="50" spans="1:18" ht="14.25" customHeight="1">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>19.170000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="51" spans="1:18" ht="14.25" customHeight="1">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="52" spans="1:18" ht="14.25" customHeight="1">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>18.82</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="53" spans="1:18" ht="14.25" customHeight="1">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="54" spans="1:18" ht="14.25" customHeight="1">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="55" spans="1:18" ht="14.25" customHeight="1">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="56" spans="1:18" ht="14.25" customHeight="1">
       <c r="A56" t="s">
         <v>201</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>17.48</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="57" spans="1:18" ht="14.25" customHeight="1">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="58" spans="1:18" ht="14.25" customHeight="1">
       <c r="A58" t="s">
         <v>202</v>
       </c>
@@ -6119,7 +6118,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="59" spans="1:18" ht="14.25" customHeight="1">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="60" spans="1:18" ht="14.25" customHeight="1">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="61" spans="1:18" ht="14.25" customHeight="1">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="62" spans="1:18" ht="14.25" customHeight="1">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -6351,7 +6350,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="63" spans="1:18" ht="14.25" customHeight="1">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="64" spans="1:18" ht="14.25" customHeight="1">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="65" spans="1:18" ht="14.25" customHeight="1">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="66" spans="1:18" ht="14.25" customHeight="1">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="67" spans="1:18" ht="14.25" customHeight="1">
       <c r="A67" t="s">
         <v>211</v>
       </c>
@@ -6641,7 +6640,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="68" spans="1:18" ht="14.25" customHeight="1">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="69" spans="1:18" ht="14.25" customHeight="1">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -6757,7 +6756,7 @@
         <v>15.31</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="70" spans="1:18" ht="14.25" customHeight="1">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="71" spans="1:18" ht="14.25" customHeight="1">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="72" spans="1:18" ht="14.25" customHeight="1">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="73" spans="1:18" ht="14.25" customHeight="1">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -6989,7 +6988,7 @@
         <v>15.19</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="74" spans="1:18" ht="14.25" customHeight="1">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="75" spans="1:18" ht="14.25" customHeight="1">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -7058,7 +7057,7 @@
       <c r="C75" t="s">
         <v>99</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="7" t="s">
         <v>254</v>
       </c>
       <c r="E75" t="str">
@@ -7105,7 +7104,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="76" spans="1:18" ht="14.25" customHeight="1">
       <c r="A76" t="s">
         <v>213</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="77" spans="1:18" ht="14.25" customHeight="1">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="78" spans="1:18" ht="14.25" customHeight="1">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>14.61</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="79" spans="1:18" ht="14.25" customHeight="1">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="80" spans="1:18" ht="14.25" customHeight="1">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="81" spans="1:18" ht="14.25" customHeight="1">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="82" spans="1:18" ht="14.25" customHeight="1">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>14.39</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="83" spans="1:18" ht="14.25" customHeight="1">
       <c r="A83" t="s">
         <v>216</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="84" spans="1:18" ht="14.25" customHeight="1">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -7627,7 +7626,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="85" spans="1:18" ht="14.25" customHeight="1">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>14.19</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="86" spans="1:18" ht="14.25" customHeight="1">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -7743,7 +7742,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="87" spans="1:18" ht="14.25" customHeight="1">
       <c r="A87" t="s">
         <v>217</v>
       </c>
@@ -7801,7 +7800,7 @@
         <v>14.09</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="88" spans="1:18" ht="14.25" customHeight="1">
       <c r="A88" t="s">
         <v>110</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="89" spans="1:18" ht="14.25" customHeight="1">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="90" spans="1:18" ht="14.25" customHeight="1">
       <c r="A90" t="s">
         <v>218</v>
       </c>
@@ -7975,7 +7974,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="91" spans="1:18" ht="14.25" customHeight="1">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="92" spans="1:18" ht="14.25" customHeight="1">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="93" spans="1:18" ht="14.25" customHeight="1">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="94" spans="1:18" ht="14.25" customHeight="1">
       <c r="A94" t="s">
         <v>114</v>
       </c>
@@ -8207,7 +8206,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="95" spans="1:18" ht="14.25" customHeight="1">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="96" spans="1:18" ht="14.25" customHeight="1">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -8323,7 +8322,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="97" spans="1:18" ht="14.25" customHeight="1">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="98" spans="1:18" ht="14.25" customHeight="1">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="99" spans="1:18" ht="14.25" customHeight="1">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="100" spans="1:18" ht="14.25" customHeight="1">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>13.06</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="101" spans="1:18" ht="14.25" customHeight="1">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -8613,7 +8612,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="102" spans="1:18" ht="14.25" customHeight="1">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="103" spans="1:18" ht="14.25" customHeight="1">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="104" spans="1:18" ht="14.25" customHeight="1">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -8787,7 +8786,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="105" spans="1:18" ht="14.25" customHeight="1">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="106" spans="1:18" ht="14.25" customHeight="1">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -8903,7 +8902,7 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="107" spans="1:18" ht="14.25" customHeight="1">
       <c r="A107" t="s">
         <v>127</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="108" spans="1:18" ht="14.25" customHeight="1">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -9019,7 +9018,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="109" spans="1:18" ht="14.25" customHeight="1">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="110" spans="1:18" ht="14.25" customHeight="1">
       <c r="A110" t="s">
         <v>131</v>
       </c>
@@ -9135,7 +9134,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="111" spans="1:18" ht="14.25" customHeight="1">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="112" spans="1:18" ht="14.25" customHeight="1">
       <c r="A112" t="s">
         <v>226</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>12.29</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="113" spans="1:18" ht="14.25" customHeight="1">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -9309,7 +9308,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="114" spans="1:18" ht="14.25" customHeight="1">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="115" spans="1:18" ht="14.25" customHeight="1">
       <c r="A115" t="s">
         <v>137</v>
       </c>
@@ -9425,7 +9424,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="116" spans="1:18" ht="14.25" customHeight="1">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -9483,7 +9482,7 @@
         <v>12.04</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="117" spans="1:18" ht="14.25" customHeight="1">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -9541,7 +9540,7 @@
         <v>11.91</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="118" spans="1:18" ht="14.25" customHeight="1">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -9552,7 +9551,7 @@
       <c r="C118" t="s">
         <v>140</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="7" t="s">
         <v>254</v>
       </c>
       <c r="E118" t="str">
@@ -9599,7 +9598,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="119" spans="1:18" ht="14.25" customHeight="1">
       <c r="A119" t="s">
         <v>228</v>
       </c>
@@ -9657,7 +9656,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="120" spans="1:18" ht="14.25" customHeight="1">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -9668,7 +9667,7 @@
       <c r="C120" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="7" t="s">
         <v>254</v>
       </c>
       <c r="E120" t="str">
@@ -9715,7 +9714,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="121" spans="1:18" ht="14.25" customHeight="1">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>11.65</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="122" spans="1:18" ht="14.25" customHeight="1">
       <c r="A122" t="s">
         <v>143</v>
       </c>
@@ -9831,7 +9830,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="123" spans="1:18" ht="14.25" customHeight="1">
       <c r="A123" t="s">
         <v>144</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="124" spans="1:18" ht="14.25" customHeight="1">
       <c r="A124" t="s">
         <v>145</v>
       </c>
@@ -9947,7 +9946,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="125" spans="1:18" ht="14.25" customHeight="1">
       <c r="A125" t="s">
         <v>146</v>
       </c>
@@ -10005,7 +10004,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="126" spans="1:18" ht="14.25" customHeight="1">
       <c r="A126" t="s">
         <v>230</v>
       </c>
@@ -10016,7 +10015,7 @@
       <c r="C126" t="s">
         <v>147</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="7" t="s">
         <v>254</v>
       </c>
       <c r="E126" t="str">
@@ -10063,7 +10062,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="127" spans="1:18" ht="14.25" customHeight="1">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -10121,7 +10120,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="128" spans="1:18" ht="14.25" customHeight="1">
       <c r="A128" t="s">
         <v>231</v>
       </c>
@@ -10132,7 +10131,7 @@
       <c r="C128" t="s">
         <v>236</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="7" t="s">
         <v>254</v>
       </c>
       <c r="E128" t="str">
@@ -10179,7 +10178,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="129" spans="1:18" ht="14.25" customHeight="1">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -10237,7 +10236,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="130" spans="1:18" ht="14.25" customHeight="1">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -10295,7 +10294,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="131" spans="1:18" ht="14.25" customHeight="1">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="132" spans="1:18" ht="14.25" customHeight="1">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -10411,7 +10410,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="133" spans="1:18" ht="14.25" customHeight="1">
       <c r="A133" t="s">
         <v>233</v>
       </c>
@@ -10469,7 +10468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="134" spans="1:18" ht="14.25" customHeight="1">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -10527,7 +10526,7 @@
         <v>10.77</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="135" spans="1:18" ht="14.25" customHeight="1">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -10585,7 +10584,7 @@
         <v>10.66</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="136" spans="1:18" ht="14.25" customHeight="1">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -10643,7 +10642,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="137" spans="1:18" ht="14.25" customHeight="1">
       <c r="A137" t="s">
         <v>156</v>
       </c>
@@ -10701,7 +10700,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="138" spans="1:18" ht="14.25" customHeight="1">
       <c r="A138" t="s">
         <v>234</v>
       </c>
@@ -10759,7 +10758,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="139" spans="1:18" ht="14.25" customHeight="1">
       <c r="A139" t="s">
         <v>157</v>
       </c>
@@ -10817,7 +10816,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="140" spans="1:18" ht="14.25" customHeight="1">
       <c r="A140" t="s">
         <v>158</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>9.86</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="141" spans="1:18" ht="14.25" customHeight="1">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="142" spans="1:18" ht="14.25" customHeight="1">
       <c r="A142" t="s">
         <v>160</v>
       </c>
@@ -10991,7 +10990,7 @@
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="143" spans="1:18" ht="14.25" customHeight="1">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -11049,7 +11048,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="144" spans="1:18" ht="14.25" customHeight="1">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="145" spans="1:18" ht="14.25" customHeight="1">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -11165,7 +11164,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="146" spans="1:18" ht="14.25" customHeight="1">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -11223,7 +11222,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="147" spans="1:18" ht="14.25" customHeight="1">
       <c r="A147" t="s">
         <v>165</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="148" spans="1:18" ht="14.25" customHeight="1">
       <c r="A148" t="s">
         <v>235</v>
       </c>
@@ -11339,7 +11338,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="149" spans="1:18" ht="14.25" customHeight="1">
       <c r="A149" t="s">
         <v>166</v>
       </c>
@@ -11397,7 +11396,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="150" spans="1:18" ht="14.25" customHeight="1">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -11455,303 +11454,329 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+    <row r="151" spans="1:18" ht="14.25" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
-    </row>
-    <row r="152" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
-    </row>
-    <row r="153" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-    </row>
-    <row r="154" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
-    </row>
-    <row r="155" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-    </row>
-    <row r="156" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+    </row>
+    <row r="152" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+    </row>
+    <row r="153" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+    </row>
+    <row r="154" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+    </row>
+    <row r="155" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+    </row>
+    <row r="156" spans="1:18" ht="14.25" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
-    </row>
-    <row r="157" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="5"/>
-    </row>
-    <row r="158" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="5"/>
-    </row>
-    <row r="159" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-    </row>
-    <row r="160" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-    </row>
-    <row r="161" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="5"/>
-    </row>
-    <row r="162" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+    </row>
+    <row r="157" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="14"/>
+      <c r="N157" s="14"/>
+      <c r="O157" s="14"/>
+      <c r="P157" s="14"/>
+      <c r="Q157" s="14"/>
+      <c r="R157" s="14"/>
+    </row>
+    <row r="158" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+      <c r="R158" s="14"/>
+    </row>
+    <row r="159" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="14"/>
+      <c r="N159" s="14"/>
+      <c r="O159" s="14"/>
+      <c r="P159" s="14"/>
+      <c r="Q159" s="14"/>
+      <c r="R159" s="14"/>
+    </row>
+    <row r="160" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="14"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="14"/>
+      <c r="P160" s="14"/>
+      <c r="Q160" s="14"/>
+      <c r="R160" s="14"/>
+    </row>
+    <row r="161" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="14"/>
+      <c r="N161" s="14"/>
+      <c r="O161" s="14"/>
+      <c r="P161" s="14"/>
+      <c r="Q161" s="14"/>
+      <c r="R161" s="14"/>
+    </row>
+    <row r="162" spans="1:18" ht="14.25" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
-    </row>
-    <row r="163" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
-    </row>
-    <row r="164" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-    </row>
-    <row r="165" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
-    </row>
-    <row r="166" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
-      <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
-    </row>
-    <row r="167" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
-      <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
-    </row>
-    <row r="168" spans="1:18" ht="14.25" hidden="1" customHeight="1">
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+    </row>
+    <row r="163" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="12"/>
+    </row>
+    <row r="164" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="12"/>
+    </row>
+    <row r="165" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+    </row>
+    <row r="166" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+    </row>
+    <row r="167" spans="1:18" ht="14.25" customHeight="1">
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="12"/>
+    </row>
+    <row r="168" spans="1:18" ht="14.25" customHeight="1">
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="I168" s="2"/>
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
-    </row>
-    <row r="169" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="4"/>
-      <c r="P169" s="4"/>
-      <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
-    </row>
-    <row r="170" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4"/>
-      <c r="P170" s="4"/>
-      <c r="Q170" s="4"/>
-      <c r="R170" s="4"/>
-    </row>
-    <row r="171" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
-    </row>
-    <row r="172" spans="1:18" ht="14.25" hidden="1" customHeight="1">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
-      <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
-      <c r="Q172" s="4"/>
-      <c r="R172" s="4"/>
-    </row>
-    <row r="173" spans="1:18" ht="14.25" hidden="1" customHeight="1"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
+    </row>
+    <row r="169" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12"/>
+    </row>
+    <row r="170" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+    </row>
+    <row r="171" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+    </row>
+    <row r="172" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
+    </row>
+    <row r="173" spans="1:18" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:E173" xr:uid="{A9BE50D3-CA61-3343-9376-E9D2E2E91AA8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Rosalee Fleming"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E173" xr:uid="{A9BE50D3-CA61-3343-9376-E9D2E2E91AA8}"/>
   <mergeCells count="40">
+    <mergeCell ref="J151:L151"/>
+    <mergeCell ref="M151:R151"/>
+    <mergeCell ref="J152:L152"/>
+    <mergeCell ref="M152:R152"/>
+    <mergeCell ref="J153:L153"/>
+    <mergeCell ref="M153:R153"/>
+    <mergeCell ref="J154:L154"/>
+    <mergeCell ref="M154:R154"/>
+    <mergeCell ref="J155:L155"/>
+    <mergeCell ref="M155:R155"/>
+    <mergeCell ref="J156:L156"/>
+    <mergeCell ref="M156:R156"/>
+    <mergeCell ref="J157:L157"/>
+    <mergeCell ref="M157:R157"/>
+    <mergeCell ref="J158:L158"/>
+    <mergeCell ref="M158:R158"/>
+    <mergeCell ref="J159:L159"/>
+    <mergeCell ref="M159:R159"/>
+    <mergeCell ref="J160:L160"/>
+    <mergeCell ref="M160:R160"/>
+    <mergeCell ref="J161:L161"/>
+    <mergeCell ref="M161:R161"/>
+    <mergeCell ref="J162:L162"/>
+    <mergeCell ref="M162:R162"/>
+    <mergeCell ref="J163:L163"/>
+    <mergeCell ref="M163:R163"/>
+    <mergeCell ref="J164:L164"/>
+    <mergeCell ref="M164:R164"/>
+    <mergeCell ref="J165:L165"/>
+    <mergeCell ref="M165:R165"/>
+    <mergeCell ref="J166:L166"/>
+    <mergeCell ref="M166:R166"/>
     <mergeCell ref="A170:R170"/>
     <mergeCell ref="A171:R171"/>
     <mergeCell ref="A172:R172"/>
@@ -11760,38 +11785,6 @@
     <mergeCell ref="J168:L168"/>
     <mergeCell ref="M168:R168"/>
     <mergeCell ref="A169:R169"/>
-    <mergeCell ref="J164:L164"/>
-    <mergeCell ref="M164:R164"/>
-    <mergeCell ref="J165:L165"/>
-    <mergeCell ref="M165:R165"/>
-    <mergeCell ref="J166:L166"/>
-    <mergeCell ref="M166:R166"/>
-    <mergeCell ref="J161:L161"/>
-    <mergeCell ref="M161:R161"/>
-    <mergeCell ref="J162:L162"/>
-    <mergeCell ref="M162:R162"/>
-    <mergeCell ref="J163:L163"/>
-    <mergeCell ref="M163:R163"/>
-    <mergeCell ref="J158:L158"/>
-    <mergeCell ref="M158:R158"/>
-    <mergeCell ref="J159:L159"/>
-    <mergeCell ref="M159:R159"/>
-    <mergeCell ref="J160:L160"/>
-    <mergeCell ref="M160:R160"/>
-    <mergeCell ref="J155:L155"/>
-    <mergeCell ref="M155:R155"/>
-    <mergeCell ref="J156:L156"/>
-    <mergeCell ref="M156:R156"/>
-    <mergeCell ref="J157:L157"/>
-    <mergeCell ref="M157:R157"/>
-    <mergeCell ref="J152:L152"/>
-    <mergeCell ref="M152:R152"/>
-    <mergeCell ref="J153:L153"/>
-    <mergeCell ref="M153:R153"/>
-    <mergeCell ref="J154:L154"/>
-    <mergeCell ref="M154:R154"/>
-    <mergeCell ref="J151:L151"/>
-    <mergeCell ref="M151:R151"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11817,2975 +11810,2975 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" hidden="1">
-      <c r="A2" s="14">
+      <c r="A2" s="11">
         <v>82</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(C2,table!B2:B150,1,0)</f>
         <v>albert meyers</v>
       </c>
-      <c r="C2" s="14" t="str">
-        <f>LOWER(E2)</f>
+      <c r="C2" s="11" t="str">
+        <f t="shared" ref="C2:C33" si="0">LOWER(E2)</f>
         <v>albert meyers</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" hidden="1">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>99</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(C3,table!B3:B151,1,0)</f>
         <v>andrea ring</v>
       </c>
-      <c r="C3" s="14" t="str">
-        <f>LOWER(E3)</f>
+      <c r="C3" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>andrea ring</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" hidden="1">
-      <c r="A4" s="14">
+      <c r="A4" s="11">
         <v>66</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(C4,table!B4:B152,1,0)</f>
         <v>andrew lewis</v>
       </c>
-      <c r="C4" s="14" t="str">
-        <f>LOWER(E4)</f>
+      <c r="C4" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>andrew lewis</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" hidden="1">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <v>147</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(C5,table!B5:B153,1,0)</f>
         <v>andy zipper</v>
       </c>
-      <c r="C5" s="14" t="str">
-        <f>LOWER(E5)</f>
+      <c r="C5" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>andy zipper</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" hidden="1">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <v>136</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(C6,table!B6:B154,1,0)</f>
         <v>barry tycholiz</v>
       </c>
-      <c r="C6" s="14" t="str">
-        <f>LOWER(E6)</f>
+      <c r="C6" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>barry tycholiz</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" hidden="1">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <v>102</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(C7,table!B7:B155,1,0)</f>
         <v>benjamin rogers</v>
       </c>
-      <c r="C7" s="14" t="str">
-        <f>LOWER(E7)</f>
+      <c r="C7" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>benjamin rogers</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" hidden="1">
-      <c r="A8" s="14">
+      <c r="A8" s="11">
         <v>96</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(C8,table!B8:B156,1,0)</f>
         <v>bill rapp</v>
       </c>
-      <c r="C8" s="14" t="str">
-        <f>LOWER(E8)</f>
+      <c r="C8" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>bill rapp</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" hidden="1">
-      <c r="A9" s="14">
+      <c r="A9" s="11">
         <v>78</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(C9,table!B9:B157,1,0)</f>
         <v>brad mckay</v>
       </c>
-      <c r="C9" s="14" t="str">
-        <f>LOWER(E9)</f>
+      <c r="C9" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>brad mckay</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" hidden="1">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <v>113</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(C10,table!B10:B158,1,0)</f>
         <v>cara semperger</v>
       </c>
-      <c r="C10" s="14" t="str">
-        <f>LOWER(E10)</f>
+      <c r="C10" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>cara semperger</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" hidden="1">
-      <c r="A11" s="14">
+      <c r="A11" s="11">
         <v>124</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(C11,table!B11:B159,1,0)</f>
         <v>carol clair</v>
       </c>
-      <c r="C11" s="14" t="str">
-        <f>LOWER(E11)</f>
+      <c r="C11" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>carol clair</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>383</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" hidden="1">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <v>28</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(C12,table!B12:B160,1,0)</f>
         <v>chris dorland</v>
       </c>
-      <c r="C12" s="14" t="str">
-        <f>LOWER(E12)</f>
+      <c r="C12" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>chris dorland</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" hidden="1">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <v>37</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(C13,table!B13:B161,1,0)</f>
         <v>chris germany</v>
       </c>
-      <c r="C13" s="14" t="str">
-        <f>LOWER(E13)</f>
+      <c r="C13" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>chris germany</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" hidden="1">
-      <c r="A14" s="14">
+      <c r="A14" s="11">
         <v>127</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(C14,table!B14:B162,1,0)</f>
         <v>chris stokley</v>
       </c>
-      <c r="C14" s="14" t="str">
-        <f>LOWER(E14)</f>
+      <c r="C14" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>chris stokley</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" hidden="1">
-      <c r="A15" s="14">
+      <c r="A15" s="11">
         <v>98</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(C15,table!B15:B163,1,0)</f>
         <v>cooper richey</v>
       </c>
-      <c r="C15" s="14" t="str">
-        <f>LOWER(E15)</f>
+      <c r="C15" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>cooper richey</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" hidden="1">
-      <c r="A16" s="14">
+      <c r="A16" s="11">
         <v>22</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(C16,table!B16:B164,1,0)</f>
         <v>craig dean</v>
       </c>
-      <c r="C16" s="14" t="str">
-        <f>LOWER(E16)</f>
+      <c r="C16" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>craig dean</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" hidden="1">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <v>54</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(C17,table!B17:B165,1,0)</f>
         <v>dan hyvl</v>
       </c>
-      <c r="C17" s="14" t="str">
-        <f>LOWER(E17)</f>
+      <c r="C17" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>dan hyvl</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" hidden="1">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>21</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(C18,table!B18:B166,1,0)</f>
         <v>dana davis</v>
       </c>
-      <c r="C18" s="14" t="str">
-        <f>LOWER(E18)</f>
+      <c r="C18" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>dana davis</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" hidden="1">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <v>76</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(C19,table!B19:B167,1,0)</f>
         <v>danny mccarty</v>
       </c>
-      <c r="C19" s="14" t="str">
-        <f>LOWER(E19)</f>
+      <c r="C19" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>danny mccarty</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" hidden="1">
-      <c r="A20" s="14">
+      <c r="A20" s="11">
         <v>30</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(C20,table!B20:B168,1,0)</f>
         <v>jerry farmer</v>
       </c>
-      <c r="C20" s="14" t="str">
-        <f>LOWER(E20)</f>
+      <c r="C20" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>jerry farmer</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>287</v>
       </c>
       <c r="E20" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" hidden="1">
-      <c r="A21" s="14">
+      <c r="A21" s="11">
         <v>110</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(C21,table!B21:B169,1,0)</f>
         <v>darrell schoolcraft</v>
       </c>
-      <c r="C21" s="14" t="str">
-        <f>LOWER(E21)</f>
+      <c r="C21" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>darrell schoolcraft</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" hidden="1">
-      <c r="A22" s="14">
+      <c r="A22" s="11">
         <v>39</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(C22,table!B22:B170,1,0)</f>
         <v>darron giron</v>
       </c>
-      <c r="C22" s="14" t="str">
-        <f>LOWER(E22)</f>
+      <c r="C22" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>darron giron</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" hidden="1">
-      <c r="A23" s="14">
+      <c r="A23" s="11">
         <v>23</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(C23,table!B23:B171,1,0)</f>
         <v>david delainey</v>
       </c>
-      <c r="C23" s="14" t="str">
-        <f>LOWER(E23)</f>
+      <c r="C23" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>david delainey</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" hidden="1">
-      <c r="A24" s="14">
+      <c r="A24" s="11">
         <v>90</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(C24,table!B24:B172,1,0)</f>
         <v>debra perlingiere</v>
       </c>
-      <c r="C24" s="14" t="str">
-        <f>LOWER(E24)</f>
+      <c r="C24" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>debra perlingiere</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" hidden="1">
-      <c r="A25" s="14">
+      <c r="A25" s="11">
         <v>109</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(C25,table!B25:B173,1,0)</f>
         <v>diana scholtes</v>
       </c>
-      <c r="C25" s="14" t="str">
-        <f>LOWER(E25)</f>
+      <c r="C25" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>diana scholtes</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" hidden="1">
-      <c r="A26" s="14">
+      <c r="A26" s="11">
         <v>7</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(C26,table!B26:B174,1,0)</f>
         <v>don baughman</v>
       </c>
-      <c r="C26" s="14" t="str">
-        <f>LOWER(E26)</f>
+      <c r="C26" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>don baughman</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" hidden="1">
-      <c r="A27" s="14">
+      <c r="A27" s="11">
         <v>38</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(C27,table!B27:B175,1,0)</f>
         <v>doug gilbert- smith</v>
       </c>
-      <c r="C27" s="14" t="str">
-        <f>LOWER(E27)</f>
+      <c r="C27" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>doug gilbert- smith</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>296</v>
       </c>
       <c r="E27" t="s">
         <v>220</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" hidden="1">
-      <c r="A28" s="14">
+      <c r="A28" s="11">
         <v>33</v>
       </c>
       <c r="B28" t="e">
         <f>VLOOKUP(C28,table!B28:B176,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C28" s="14" t="str">
-        <f>LOWER(E28)</f>
+      <c r="C28" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>drew fossum</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" hidden="1">
-      <c r="A29" s="14">
+      <c r="A29" s="11">
         <v>95</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(C29,table!B29:B177,1,0)</f>
         <v>dutch quigley</v>
       </c>
-      <c r="C29" s="14" t="str">
-        <f>LOWER(E29)</f>
+      <c r="C29" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>dutch quigley</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" hidden="1">
-      <c r="A30" s="14">
+      <c r="A30" s="11">
         <v>104</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(C30,table!B30:B178,1,0)</f>
         <v>elizabeth sager</v>
       </c>
-      <c r="C30" s="14" t="str">
-        <f>LOWER(E30)</f>
+      <c r="C30" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>elizabeth sager</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" hidden="1">
-      <c r="A31" s="14">
+      <c r="A31" s="11">
         <v>6</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(C31,table!B31:B179,1,0)</f>
         <v>eric bass</v>
       </c>
-      <c r="C31" s="14" t="str">
-        <f>LOWER(E31)</f>
+      <c r="C31" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>eric bass</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" hidden="1">
-      <c r="A32" s="14">
+      <c r="A32" s="11">
         <v>67</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(C32,table!B32:B180,1,0)</f>
         <v>eric linder</v>
       </c>
-      <c r="C32" s="14" t="str">
-        <f>LOWER(E32)</f>
+      <c r="C32" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>eric linder</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" hidden="1">
-      <c r="A33" s="14">
+      <c r="A33" s="11">
         <v>105</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP(C33,table!B33:B181,1,0)</f>
         <v>eric saibi</v>
       </c>
-      <c r="C33" s="14" t="str">
-        <f>LOWER(E33)</f>
+      <c r="C33" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>eric saibi</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" hidden="1">
-      <c r="A34" s="14">
+      <c r="A34" s="11">
         <v>80</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(C34,table!B34:B182,1,0)</f>
         <v>errol mclaughlin</v>
       </c>
-      <c r="C34" s="14" t="str">
-        <f>LOWER(E34)</f>
+      <c r="C34" s="11" t="str">
+        <f t="shared" ref="C34:C65" si="1">LOWER(E34)</f>
         <v>errol mclaughlin</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" hidden="1">
-      <c r="A35" s="14">
+      <c r="A35" s="11">
         <v>129</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(C35,table!B35:B183,1,0)</f>
         <v>fletcher sturm</v>
       </c>
-      <c r="C35" s="14" t="str">
-        <f>LOWER(E35)</f>
+      <c r="C35" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>fletcher sturm</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" hidden="1">
-      <c r="A36" s="14">
+      <c r="A36" s="11">
         <v>29</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP(C36,table!B36:B184,1,0)</f>
         <v>frank ermis</v>
       </c>
-      <c r="C36" s="14" t="str">
-        <f>LOWER(E36)</f>
+      <c r="C36" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>frank ermis</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" hidden="1">
-      <c r="A37" s="14">
+      <c r="A37" s="11">
         <v>121</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP(C37,table!B37:B185,1,0)</f>
         <v>geir solberg</v>
       </c>
-      <c r="C37" s="14" t="str">
-        <f>LOWER(E37)</f>
+      <c r="C37" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>geir solberg</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="14"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" hidden="1">
-      <c r="A38" s="14">
+      <c r="A38" s="11">
         <v>128</v>
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP(C38,table!B38:B186,1,0)</f>
         <v>geoffrey storey</v>
       </c>
-      <c r="C38" s="14" t="str">
-        <f>LOWER(E38)</f>
+      <c r="C38" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>geoffrey storey</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="11" t="s">
         <v>387</v>
       </c>
       <c r="E38" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" hidden="1">
-      <c r="A39" s="14">
+      <c r="A39" s="11">
         <v>86</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP(C39,table!B39:B187,1,0)</f>
         <v>gerald nemec</v>
       </c>
-      <c r="C39" s="14" t="str">
-        <f>LOWER(E39)</f>
+      <c r="C39" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>gerald nemec</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="30" hidden="1">
-      <c r="A40" s="14">
+      <c r="A40" s="11">
         <v>140</v>
       </c>
       <c r="B40" t="e">
         <f>VLOOKUP(C40,table!B40:B188,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C40" s="14" t="str">
-        <f>LOWER(E40)</f>
+      <c r="C40" s="11" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">lawrence g. whalley
 g. whalley </v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" hidden="1">
-      <c r="A41" s="14">
+      <c r="A41" s="11">
         <v>3</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(C41,table!B41:B189,1,0)</f>
         <v>harry arora</v>
       </c>
-      <c r="C41" s="14" t="str">
-        <f>LOWER(E41)</f>
+      <c r="C41" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>harry arora</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" hidden="1">
-      <c r="A42" s="14">
+      <c r="A42" s="11">
         <v>106</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(C42,table!B42:B190,1,0)</f>
         <v>holden salisbury</v>
       </c>
-      <c r="C42" s="14" t="str">
-        <f>LOWER(E42)</f>
+      <c r="C42" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>holden salisbury</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" hidden="1">
-      <c r="A43" s="14">
+      <c r="A43" s="11">
         <v>117</v>
       </c>
       <c r="B43" t="e">
         <f>VLOOKUP(C43,table!B43:B191,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C43" s="14" t="str">
-        <f>LOWER(E43)</f>
+      <c r="C43" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>hunter shively</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="14"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" hidden="1">
-      <c r="A44" s="14">
+      <c r="A44" s="11">
         <v>24</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(C44,table!B44:B192,1,0)</f>
         <v>james derrick</v>
       </c>
-      <c r="C44" s="14" t="str">
-        <f>LOWER(E44)</f>
+      <c r="C44" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>james derrick</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" hidden="1">
-      <c r="A45" s="14">
+      <c r="A45" s="11">
         <v>125</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP(C45,table!B45:B193,1,0)</f>
         <v>james steffes</v>
       </c>
-      <c r="C45" s="14" t="str">
-        <f>LOWER(E45)</f>
+      <c r="C45" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>james steffes</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="14"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" hidden="1">
-      <c r="A46" s="14">
+      <c r="A46" s="11">
         <v>133</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(C46,table!B46:B194,1,0)</f>
         <v>jane tholt</v>
       </c>
-      <c r="C46" s="14" t="str">
-        <f>LOWER(E46)</f>
+      <c r="C46" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jane tholt</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" hidden="1">
-      <c r="A47" s="14">
+      <c r="A47" s="11">
         <v>143</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP(C47,table!B47:B195,1,0)</f>
         <v>jason williams</v>
       </c>
-      <c r="C47" s="14" t="str">
-        <f>LOWER(E47)</f>
+      <c r="C47" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jason williams</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F47" s="14"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" hidden="1">
-      <c r="A48" s="14">
+      <c r="A48" s="11">
         <v>145</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(C48,table!B48:B196,1,0)</f>
         <v>jason wolfe</v>
       </c>
-      <c r="C48" s="14" t="str">
-        <f>LOWER(E48)</f>
+      <c r="C48" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jason wolfe</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" hidden="1">
-      <c r="A49" s="14">
+      <c r="A49" s="11">
         <v>97</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(C49,table!B49:B197,1,0)</f>
         <v>jay reitmeyer</v>
       </c>
-      <c r="C49" s="14" t="str">
-        <f>LOWER(E49)</f>
+      <c r="C49" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jay reitmeyer</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" hidden="1">
-      <c r="A50" s="14">
+      <c r="A50" s="11">
         <v>20</v>
       </c>
       <c r="B50" t="e">
         <f>VLOOKUP(C50,table!B50:B198,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C50" s="14" t="str">
-        <f>LOWER(E50)</f>
+      <c r="C50" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jeff dasovich</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" hidden="1">
-      <c r="A51" s="14">
+      <c r="A51" s="11">
         <v>60</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(C51,table!B51:B199,1,0)</f>
         <v>jeff king</v>
       </c>
-      <c r="C51" s="14" t="str">
-        <f>LOWER(E51)</f>
+      <c r="C51" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jeff king</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" hidden="1">
-      <c r="A52" s="14">
+      <c r="A52" s="11">
         <v>118</v>
       </c>
       <c r="B52" t="e">
         <f>VLOOKUP(C52,table!B52:B200,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C52" s="14" t="str">
-        <f>LOWER(E52)</f>
+      <c r="C52" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jeffrey skilling</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="11" t="s">
         <v>377</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="14"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" hidden="1">
-      <c r="A53" s="14">
+      <c r="A53" s="11">
         <v>115</v>
       </c>
       <c r="B53" t="e">
         <f>VLOOKUP(C53,table!B53:B201,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C53" s="14" t="str">
-        <f>LOWER(E53)</f>
+      <c r="C53" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jeffrey shankman</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="14"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" hidden="1">
-      <c r="A54" s="14">
+      <c r="A54" s="11">
         <v>111</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(C54,table!B54:B202,1,0)</f>
         <v>jim schwieger</v>
       </c>
-      <c r="C54" s="14" t="str">
-        <f>LOWER(E54)</f>
+      <c r="C54" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jim schwieger</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="14"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" hidden="1">
-      <c r="A55" s="14">
+      <c r="A55" s="11">
         <v>88</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(C55,table!B55:B203,1,0)</f>
         <v>joe parks</v>
       </c>
-      <c r="C55" s="14" t="str">
-        <f>LOWER(E55)</f>
+      <c r="C55" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>joe parks</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" hidden="1">
-      <c r="A56" s="14">
+      <c r="A56" s="11">
         <v>94</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(C56,table!B56:B204,1,0)</f>
         <v>joe quenet</v>
       </c>
-      <c r="C56" s="14" t="str">
-        <f>LOWER(E56)</f>
+      <c r="C56" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>joe quenet</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F56" s="14"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" hidden="1">
-      <c r="A57" s="14">
+      <c r="A57" s="11">
         <v>126</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(C57,table!B57:B205,1,0)</f>
         <v>joe stepenovitch</v>
       </c>
-      <c r="C57" s="14" t="str">
-        <f>LOWER(E57)</f>
+      <c r="C57" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>joe stepenovitch</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F57" s="14"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6" hidden="1">
-      <c r="A58" s="14">
+      <c r="A58" s="11">
         <v>2</v>
       </c>
       <c r="B58" t="e">
         <f>VLOOKUP(C58,table!B58:B206,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C58" s="14" t="str">
-        <f>LOWER(E58)</f>
+      <c r="C58" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>john arnold</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" hidden="1">
-      <c r="A59" s="14">
+      <c r="A59" s="11">
         <v>32</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(C59,table!B59:B207,1,0)</f>
         <v>john forney</v>
       </c>
-      <c r="C59" s="14" t="str">
-        <f>LOWER(E59)</f>
+      <c r="C59" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>john forney</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="14">
+      <c r="A60" s="11">
         <v>40</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(C60,table!B60:B208,1,0)</f>
         <v>john griffith</v>
       </c>
-      <c r="C60" s="14" t="str">
-        <f>LOWER(E60)</f>
+      <c r="C60" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>john griffith</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="11" t="s">
         <v>298</v>
       </c>
       <c r="E60" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="14"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6" hidden="1">
-      <c r="A61" s="14">
+      <c r="A61" s="11">
         <v>50</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP(C61,table!B61:B209,1,0)</f>
         <v>john hodge</v>
       </c>
-      <c r="C61" s="14" t="str">
-        <f>LOWER(E61)</f>
+      <c r="C61" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>john hodge</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F61" s="14"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" hidden="1">
-      <c r="A62" s="14">
+      <c r="A62" s="11">
         <v>63</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP(C62,table!B62:B210,1,0)</f>
         <v>john lavorato</v>
       </c>
-      <c r="C62" s="14" t="str">
-        <f>LOWER(E62)</f>
+      <c r="C62" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>john lavorato</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="14"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" hidden="1">
-      <c r="A63" s="14">
+      <c r="A63" s="11">
         <v>148</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP(C63,table!B63:B211,1,0)</f>
         <v>john zufferli</v>
       </c>
-      <c r="C63" s="14" t="str">
-        <f>LOWER(E63)</f>
+      <c r="C63" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>john zufferli</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="14"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" hidden="1">
-      <c r="A64" s="14">
+      <c r="A64" s="11">
         <v>79</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP(C64,table!B64:B212,1,0)</f>
         <v>jonathan mckay</v>
       </c>
-      <c r="C64" s="14" t="str">
-        <f>LOWER(E64)</f>
+      <c r="C64" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>jonathan mckay</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F64" s="14"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" hidden="1">
-      <c r="A65" s="14">
+      <c r="A65" s="11">
         <v>49</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP(C65,table!B65:B213,1,0)</f>
         <v>juan hernandez</v>
       </c>
-      <c r="C65" s="14" t="str">
-        <f>LOWER(E65)</f>
+      <c r="C65" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>juan hernandez</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F65" s="14"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" hidden="1">
-      <c r="A66" s="14">
+      <c r="A66" s="11">
         <v>135</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP(C66,table!B66:B214,1,0)</f>
         <v>judy townsend</v>
       </c>
-      <c r="C66" s="14" t="str">
-        <f>LOWER(E66)</f>
+      <c r="C66" s="11" t="str">
+        <f t="shared" ref="C66:C97" si="2">LOWER(E66)</f>
         <v>judy townsend</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F66" s="14"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" hidden="1">
-      <c r="A67" s="14">
+      <c r="A67" s="11">
         <v>59</v>
       </c>
       <c r="B67" t="e">
         <f>VLOOKUP(C67,table!B67:B215,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C67" s="14" t="str">
-        <f>LOWER(E67)</f>
+      <c r="C67" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>kam keiser</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="14"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" hidden="1">
-      <c r="A68" s="14">
+      <c r="A68" s="11">
         <v>131</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP(C68,table!B68:B216,1,0)</f>
         <v>kate symes</v>
       </c>
-      <c r="C68" s="14" t="str">
-        <f>LOWER(E68)</f>
+      <c r="C68" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>kate symes</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F68" s="14"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6" hidden="1">
-      <c r="A69" s="14">
+      <c r="A69" s="11">
         <v>73</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP(C69,table!B69:B217,1,0)</f>
         <v>kay mann</v>
       </c>
-      <c r="C69" s="14" t="str">
-        <f>LOWER(E69)</f>
+      <c r="C69" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>kay mann</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" hidden="1">
-      <c r="A70" s="14">
+      <c r="A70" s="11">
         <v>51</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(C70,table!B70:B218,1,0)</f>
         <v>keith holst</v>
       </c>
-      <c r="C70" s="14" t="str">
-        <f>LOWER(E70)</f>
+      <c r="C70" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>keith holst</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F70" s="14"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" hidden="1">
-      <c r="A71" s="14">
+      <c r="A71" s="11">
         <v>64</v>
       </c>
       <c r="B71" t="e">
         <f>VLOOKUP(C71,table!B71:B219,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C71" s="14" t="str">
-        <f>LOWER(E71)</f>
+      <c r="C71" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>kenneth lay</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" hidden="1">
-      <c r="A72" s="14">
+      <c r="A72" s="11">
         <v>53</v>
       </c>
       <c r="B72" t="e">
         <f>VLOOKUP(C72,table!B72:B220,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C72" s="14" t="str">
-        <f>LOWER(E72)</f>
+      <c r="C72" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>kevin hyatt</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" hidden="1">
-      <c r="A73" s="14">
+      <c r="A73" s="11">
         <v>93</v>
       </c>
       <c r="B73" t="e">
         <f>VLOOKUP(C73,table!B73:B221,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C73" s="14" t="str">
-        <f>LOWER(E73)</f>
+      <c r="C73" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>kevin presto</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F73" s="14"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" hidden="1">
-      <c r="A74" s="14">
+      <c r="A74" s="11">
         <v>103</v>
       </c>
       <c r="B74" t="str">
         <f>VLOOKUP(C74,table!B74:B222,1,0)</f>
         <v>kevin ruscitti</v>
       </c>
-      <c r="C74" s="14" t="str">
-        <f>LOWER(E74)</f>
+      <c r="C74" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>kevin ruscitti</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="14"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" hidden="1">
-      <c r="A75" s="14">
+      <c r="A75" s="11">
         <v>137</v>
       </c>
       <c r="B75" t="e">
         <f>VLOOKUP(C75,table!B75:B223,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C75" s="14" t="str">
-        <f>LOWER(E75)</f>
+      <c r="C75" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>kim ward</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F75" s="14"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" hidden="1">
-      <c r="A76" s="14">
+      <c r="A76" s="11">
         <v>138</v>
       </c>
       <c r="B76" t="e">
         <f>VLOOKUP(C76,table!B76:B224,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C76" s="14" t="str">
-        <f>LOWER(E76)</f>
+      <c r="C76" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>kimberly watson</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="14"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" hidden="1">
-      <c r="A77" s="14">
+      <c r="A77" s="11">
         <v>13</v>
       </c>
       <c r="B77" t="str">
         <f>VLOOKUP(C77,table!B77:B225,1,0)</f>
         <v>larry campbell</v>
       </c>
-      <c r="C77" s="14" t="str">
-        <f>LOWER(E77)</f>
+      <c r="C77" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>larry campbell</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F77" s="14"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" hidden="1">
-      <c r="A78" s="14">
+      <c r="A78" s="11">
         <v>75</v>
       </c>
       <c r="B78" t="str">
         <f>VLOOKUP(C78,table!B78:B226,1,0)</f>
         <v>lawrence may</v>
       </c>
-      <c r="C78" s="14" t="str">
-        <f>LOWER(E78)</f>
+      <c r="C78" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>lawrence may</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="11" t="s">
         <v>333</v>
       </c>
       <c r="E78" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="14"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" hidden="1">
-      <c r="A79" s="14">
+      <c r="A79" s="11">
         <v>26</v>
       </c>
       <c r="B79" t="e">
         <f>VLOOKUP(C79,table!B79:B227,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C79" s="14" t="str">
-        <f>LOWER(E79)</f>
+      <c r="C79" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>lindy donoho</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="14"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" hidden="1">
-      <c r="A80" s="14">
+      <c r="A80" s="11">
         <v>34</v>
       </c>
       <c r="B80" t="e">
         <f>VLOOKUP(C80,table!B80:B228,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C80" s="14" t="str">
-        <f>LOWER(E80)</f>
+      <c r="C80" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>lisa gang</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F80" s="14"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" hidden="1">
-      <c r="A81" s="14">
+      <c r="A81" s="11">
         <v>61</v>
       </c>
       <c r="B81" t="e">
         <f>VLOOKUP(C81,table!B81:B229,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C81" s="14" t="str">
-        <f>LOWER(E81)</f>
+      <c r="C81" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>louise kitchen</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="14"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" hidden="1">
-      <c r="A82" s="14">
+      <c r="A82" s="11">
         <v>10</v>
       </c>
       <c r="B82" t="e">
         <f>VLOOKUP(C82,table!B82:B230,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C82" s="14" t="str">
-        <f>LOWER(E82)</f>
+      <c r="C82" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>lynn blair</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F82" s="14"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" hidden="1">
-      <c r="A83" s="14">
+      <c r="A83" s="11">
         <v>47</v>
       </c>
       <c r="B83" t="e">
         <f>VLOOKUP(C83,table!B83:B231,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C83" s="14" t="str">
-        <f>LOWER(E83)</f>
+      <c r="C83" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>marie heard</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F83" s="14"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" hidden="1">
-      <c r="A84" s="14">
+      <c r="A84" s="11">
         <v>42</v>
       </c>
       <c r="B84" t="e">
         <f>VLOOKUP(C84,table!B84:B232,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C84" s="14" t="str">
-        <f>LOWER(E84)</f>
+      <c r="C84" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>mark guzman</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F84" s="14"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" hidden="1">
-      <c r="A85" s="14">
+      <c r="A85" s="11">
         <v>43</v>
       </c>
       <c r="B85" t="e">
         <f>VLOOKUP(C85,table!B85:B233,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C85" s="14" t="str">
-        <f>LOWER(E85)</f>
+      <c r="C85" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>mark haedicke</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="14"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" hidden="1">
-      <c r="A86" s="14">
+      <c r="A86" s="11">
         <v>132</v>
       </c>
       <c r="B86" t="e">
         <f>VLOOKUP(C86,table!B86:B234,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C86" s="14" t="str">
-        <f>LOWER(E86)</f>
+      <c r="C86" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>mark taylor</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F86" s="14"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" hidden="1">
-      <c r="A87" s="14">
+      <c r="A87" s="11">
         <v>142</v>
       </c>
       <c r="B87" t="e">
         <f>VLOOKUP(C87,table!B87:B235,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C87" s="14" t="str">
-        <f>LOWER(E87)</f>
+      <c r="C87" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>mark whitt</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="14"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" hidden="1">
-      <c r="A88" s="14">
+      <c r="A88" s="11">
         <v>19</v>
       </c>
       <c r="B88" t="str">
         <f>VLOOKUP(C88,table!B88:B236,1,0)</f>
         <v>martin cuilla</v>
       </c>
-      <c r="C88" s="14" t="str">
-        <f>LOWER(E88)</f>
+      <c r="C88" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>martin cuilla</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F88" s="14"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="14">
+      <c r="A89" s="11">
         <v>31</v>
       </c>
       <c r="B89" t="e">
         <f>VLOOKUP(C89,table!B89:B237,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C89" s="14" t="str">
-        <f>LOWER(E89)</f>
+      <c r="C89" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>mary fischer</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F89" s="14"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" hidden="1">
-      <c r="A90" s="14">
+      <c r="A90" s="11">
         <v>44</v>
       </c>
       <c r="B90" t="e">
         <f>VLOOKUP(C90,table!B90:B238,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C90" s="14" t="str">
-        <f>LOWER(E90)</f>
+      <c r="C90" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>mary hain</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F90" s="14"/>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" hidden="1">
-      <c r="A91" s="14">
+      <c r="A91" s="11">
         <v>84</v>
       </c>
       <c r="B91" t="str">
         <f>VLOOKUP(C91,table!B91:B239,1,0)</f>
         <v>matt motley</v>
       </c>
-      <c r="C91" s="14" t="str">
-        <f>LOWER(E91)</f>
+      <c r="C91" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>matt motley</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F91" s="14"/>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" hidden="1">
-      <c r="A92" s="14">
+      <c r="A92" s="11">
         <v>120</v>
       </c>
       <c r="B92" t="e">
         <f>VLOOKUP(C92,table!B92:B240,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C92" s="14" t="str">
-        <f>LOWER(E92)</f>
+      <c r="C92" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>matt smith</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F92" s="14"/>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6" hidden="1">
-      <c r="A93" s="14">
+      <c r="A93" s="11">
         <v>65</v>
       </c>
       <c r="B93" t="e">
         <f>VLOOKUP(C93,table!B93:B241,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C93" s="14" t="str">
-        <f>LOWER(E93)</f>
+      <c r="C93" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>matthew lenhart</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F93" s="14"/>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" hidden="1">
-      <c r="A94" s="14">
+      <c r="A94" s="11">
         <v>15</v>
       </c>
       <c r="B94" t="str">
         <f>VLOOKUP(C94,table!B94:B242,1,0)</f>
         <v>michelle cash</v>
       </c>
-      <c r="C94" s="14" t="str">
-        <f>LOWER(E94)</f>
+      <c r="C94" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>michelle cash</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F94" s="14"/>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6" hidden="1">
-      <c r="A95" s="14">
+      <c r="A95" s="11">
         <v>68</v>
       </c>
       <c r="B95" t="e">
         <f>VLOOKUP(C95,table!B95:B243,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C95" s="14" t="str">
-        <f>LOWER(E95)</f>
+      <c r="C95" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>michelle lokay</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F95" s="14"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" hidden="1">
-      <c r="A96" s="14">
+      <c r="A96" s="11">
         <v>14</v>
       </c>
       <c r="B96" t="str">
         <f>VLOOKUP(C96,table!B96:B244,1,0)</f>
         <v>mike carson</v>
       </c>
-      <c r="C96" s="14" t="str">
-        <f>LOWER(E96)</f>
+      <c r="C96" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>mike carson</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F96" s="14"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" hidden="1">
-      <c r="A97" s="14">
+      <c r="A97" s="11">
         <v>41</v>
       </c>
       <c r="B97" t="e">
         <f>VLOOKUP(C97,table!B97:B245,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C97" s="14" t="str">
-        <f>LOWER(E97)</f>
+      <c r="C97" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>mike grigsby</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="14"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" hidden="1">
-      <c r="A98" s="14">
+      <c r="A98" s="11">
         <v>72</v>
       </c>
       <c r="B98" t="e">
         <f>VLOOKUP(C98,table!B98:B246,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C98" s="14" t="str">
-        <f>LOWER(E98)</f>
+      <c r="C98" s="11" t="str">
+        <f t="shared" ref="C98:C129" si="3">LOWER(E98)</f>
         <v>mike maggi</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F98" s="14"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6" hidden="1">
-      <c r="A99" s="14">
+      <c r="A99" s="11">
         <v>77</v>
       </c>
       <c r="B99" t="e">
         <f>VLOOKUP(C99,table!B99:B247,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C99" s="14" t="str">
-        <f>LOWER(E99)</f>
+      <c r="C99" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>mark mcconnell</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="11" t="s">
         <v>335</v>
       </c>
       <c r="E99" t="s">
         <v>194</v>
       </c>
-      <c r="F99" s="14"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" hidden="1">
-      <c r="A100" s="14">
+      <c r="A100" s="11">
         <v>130</v>
       </c>
       <c r="B100" t="str">
         <f>VLOOKUP(C100,table!B100:B248,1,0)</f>
         <v>mike swerzbin</v>
       </c>
-      <c r="C100" s="14" t="str">
-        <f>LOWER(E100)</f>
+      <c r="C100" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>mike swerzbin</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F100" s="14"/>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6" hidden="1">
-      <c r="A101" s="14">
+      <c r="A101" s="11">
         <v>16</v>
       </c>
       <c r="B101" t="str">
         <f>VLOOKUP(C101,table!B101:B249,1,0)</f>
         <v>monika causholli</v>
       </c>
-      <c r="C101" s="14" t="str">
-        <f>LOWER(E101)</f>
+      <c r="C101" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>monika causholli</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F101" s="14"/>
+      <c r="F101" s="11"/>
     </row>
     <row r="102" spans="1:6" hidden="1">
-      <c r="A102" s="14">
+      <c r="A102" s="11">
         <v>107</v>
       </c>
       <c r="B102" t="e">
         <f>VLOOKUP(C102,table!B102:B250,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C102" s="14" t="str">
-        <f>LOWER(E102)</f>
+      <c r="C102" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>monique sanchez</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F102" s="14"/>
+      <c r="F102" s="11"/>
     </row>
     <row r="103" spans="1:6" hidden="1">
-      <c r="A103" s="14">
+      <c r="A103" s="11">
         <v>83</v>
       </c>
       <c r="B103" t="str">
         <f>VLOOKUP(C103,table!B103:B251,1,0)</f>
         <v>patrice mims</v>
       </c>
-      <c r="C103" s="14" t="str">
-        <f>LOWER(E103)</f>
+      <c r="C103" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>patrice mims</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F103" s="14"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" spans="1:6" hidden="1">
-      <c r="A104" s="14">
+      <c r="A104" s="11">
         <v>71</v>
       </c>
       <c r="B104" t="e">
         <f>VLOOKUP(C104,table!B104:B252,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C104" s="14" t="str">
-        <f>LOWER(E104)</f>
+      <c r="C104" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>paul lucci</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F104" s="14"/>
+      <c r="F104" s="11"/>
     </row>
     <row r="105" spans="1:6" hidden="1">
-      <c r="A105" s="14">
+      <c r="A105" s="11">
         <v>134</v>
       </c>
       <c r="B105" t="str">
         <f>VLOOKUP(C105,table!B105:B253,1,0)</f>
         <v>paul thomas</v>
       </c>
-      <c r="C105" s="14" t="str">
-        <f>LOWER(E105)</f>
+      <c r="C105" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>paul thomas</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F105" s="14"/>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6" hidden="1">
-      <c r="A106" s="14">
+      <c r="A106" s="11">
         <v>146</v>
       </c>
       <c r="B106" t="e">
         <f>VLOOKUP(C106,table!B106:B254,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C106" s="14" t="str">
-        <f>LOWER(E106)</f>
+      <c r="C106" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>paul barbo</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="11" t="s">
         <v>406</v>
       </c>
       <c r="E106" t="s">
         <v>51</v>
       </c>
-      <c r="F106" s="14"/>
+      <c r="F106" s="11"/>
     </row>
     <row r="107" spans="1:6" hidden="1">
-      <c r="A107" s="14">
+      <c r="A107" s="11">
         <v>58</v>
       </c>
       <c r="B107" t="str">
         <f>VLOOKUP(C107,table!B107:B255,1,0)</f>
         <v>peter keavey</v>
       </c>
-      <c r="C107" s="14" t="str">
-        <f>LOWER(E107)</f>
+      <c r="C107" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>peter keavey</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F107" s="14"/>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6" hidden="1">
-      <c r="A108" s="14">
+      <c r="A108" s="11">
         <v>1</v>
       </c>
       <c r="B108" t="e">
         <f>VLOOKUP(C108,table!B108:B256,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C108" s="14" t="str">
-        <f>LOWER(E108)</f>
+      <c r="C108" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>phillip allen</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E108" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F108" s="14"/>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:6" hidden="1">
-      <c r="A109" s="14">
+      <c r="A109" s="11">
         <v>70</v>
       </c>
       <c r="B109" t="e">
         <f>VLOOKUP(C109,table!B109:B257,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C109" s="14" t="str">
-        <f>LOWER(E109)</f>
+      <c r="C109" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>phillip love</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F109" s="14"/>
+      <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:6" hidden="1">
-      <c r="A110" s="14">
+      <c r="A110" s="11">
         <v>92</v>
       </c>
       <c r="B110" t="e">
         <f>VLOOKUP(C110,table!B110:B258,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C110" s="14" t="str">
-        <f>LOWER(E110)</f>
+      <c r="C110" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>phillip platter</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F110" s="14"/>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" spans="1:6" hidden="1">
-      <c r="A111" s="14">
+      <c r="A111" s="11">
         <v>35</v>
       </c>
       <c r="B111" t="e">
         <f>VLOOKUP(C111,table!B111:B259,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C111" s="14" t="str">
-        <f>LOWER(E111)</f>
+      <c r="C111" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>randall gay</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E111" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F111" s="14"/>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" spans="1:6" hidden="1">
-      <c r="A112" s="14">
+      <c r="A112" s="11">
         <v>100</v>
       </c>
       <c r="B112" t="str">
         <f>VLOOKUP(C112,table!B112:B260,1,0)</f>
         <v>richard ring</v>
       </c>
-      <c r="C112" s="14" t="str">
-        <f>LOWER(E112)</f>
+      <c r="C112" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>richard ring</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="E112" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F112" s="14"/>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6" hidden="1">
-      <c r="A113" s="14">
+      <c r="A113" s="11">
         <v>108</v>
       </c>
       <c r="B113" t="e">
         <f>VLOOKUP(C113,table!B113:B261,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C113" s="14" t="str">
-        <f>LOWER(E113)</f>
+      <c r="C113" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>richard sanders</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E113" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F113" s="14"/>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6" hidden="1">
-      <c r="A114" s="14">
+      <c r="A114" s="11">
         <v>116</v>
       </c>
       <c r="B114" t="e">
         <f>VLOOKUP(C114,table!B114:B262,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C114" s="14" t="str">
-        <f>LOWER(E114)</f>
+      <c r="C114" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>richard shapiro</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E114" s="14" t="s">
+      <c r="E114" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F114" s="14"/>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6" hidden="1">
-      <c r="A115" s="14">
+      <c r="A115" s="11">
         <v>12</v>
       </c>
       <c r="B115" t="e">
         <f>VLOOKUP(C115,table!B115:B263,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C115" s="14" t="str">
-        <f>LOWER(E115)</f>
+      <c r="C115" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>rick buy</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E115" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F115" s="14"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6" hidden="1">
-      <c r="A116" s="14">
+      <c r="A116" s="11">
         <v>4</v>
       </c>
       <c r="B116" t="str">
         <f>VLOOKUP(C116,table!B116:B264,1,0)</f>
         <v>robert badeer</v>
       </c>
-      <c r="C116" s="14" t="str">
-        <f>LOWER(E116)</f>
+      <c r="C116" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>robert badeer</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="E116" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F116" s="14"/>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" spans="1:6" hidden="1">
-      <c r="A117" s="14">
+      <c r="A117" s="11">
         <v>9</v>
       </c>
       <c r="B117" t="e">
         <f>VLOOKUP(C117,table!B117:B265,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C117" s="14" t="str">
-        <f>LOWER(E117)</f>
+      <c r="C117" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>robert benson</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F117" s="14"/>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" spans="1:6" hidden="1">
-      <c r="A118" s="14">
+      <c r="A118" s="11">
         <v>101</v>
       </c>
       <c r="B118" t="str">
         <f>VLOOKUP(C118,table!B118:B266,1,0)</f>
         <v>robin rodrigue</v>
       </c>
-      <c r="C118" s="14" t="str">
-        <f>LOWER(E118)</f>
+      <c r="C118" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>robin rodrigue</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E118" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="F118" s="14"/>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:6" hidden="1">
-      <c r="A119" s="14">
+      <c r="A119" s="11">
         <v>46</v>
       </c>
       <c r="B119" t="e">
         <f>VLOOKUP(C119,table!B119:B267,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C119" s="14" t="str">
-        <f>LOWER(E119)</f>
+      <c r="C119" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>roderick hayslett</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="11" t="s">
         <v>304</v>
       </c>
       <c r="E119" t="s">
         <v>182</v>
       </c>
-      <c r="F119" s="14"/>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:6" hidden="1">
-      <c r="A120" s="14">
+      <c r="A120" s="11">
         <v>119</v>
       </c>
       <c r="B120" t="str">
         <f>VLOOKUP(C120,table!B120:B268,1,0)</f>
         <v>ryan slinger</v>
       </c>
-      <c r="C120" s="14" t="str">
-        <f>LOWER(E120)</f>
+      <c r="C120" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>ryan slinger</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F120" s="14"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6" hidden="1">
-      <c r="A121" s="14">
+      <c r="A121" s="11">
         <v>8</v>
       </c>
       <c r="B121" t="e">
         <f>VLOOKUP(C121,table!B121:B269,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C121" s="14" t="str">
-        <f>LOWER(E121)</f>
+      <c r="C121" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>sally beck</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F121" s="14"/>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6" hidden="1">
-      <c r="A122" s="14">
+      <c r="A122" s="11">
         <v>11</v>
       </c>
       <c r="B122" t="e">
         <f>VLOOKUP(C122,table!B122:B270,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C122" s="14" t="str">
-        <f>LOWER(E122)</f>
+      <c r="C122" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>sandra brawner</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E122" s="14" t="s">
+      <c r="E122" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F122" s="14"/>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6" ht="15" hidden="1">
-      <c r="A123" s="14">
+      <c r="A123" s="11">
         <v>114</v>
       </c>
       <c r="B123" t="e">
         <f>VLOOKUP(C123,table!B123:B271,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C123" s="14" t="str">
-        <f>LOWER(E123)</f>
+      <c r="C123" s="11" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">sara shackleton </v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F123" s="14"/>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6" hidden="1">
-      <c r="A124" s="14">
+      <c r="A124" s="11">
         <v>48</v>
       </c>
       <c r="B124" t="e">
         <f>VLOOKUP(C124,table!B124:B272,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C124" s="14" t="str">
-        <f>LOWER(E124)</f>
+      <c r="C124" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>scott hendrickson</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F124" s="14"/>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" spans="1:6" hidden="1">
-      <c r="A125" s="14">
+      <c r="A125" s="11">
         <v>85</v>
       </c>
       <c r="B125" t="e">
         <f>VLOOKUP(C125,table!B125:B273,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C125" s="14" t="str">
-        <f>LOWER(E125)</f>
+      <c r="C125" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>scott neal</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E125" s="14" t="s">
+      <c r="E125" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F125" s="14"/>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6" hidden="1">
-      <c r="A126" s="14">
+      <c r="A126" s="11">
         <v>18</v>
       </c>
       <c r="B126" t="e">
         <f>VLOOKUP(C126,table!B126:B274,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C126" s="14" t="str">
-        <f>LOWER(E126)</f>
+      <c r="C126" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>sean crandall</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F126" s="14"/>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6" hidden="1">
-      <c r="A127" s="14">
+      <c r="A127" s="11">
         <v>17</v>
       </c>
       <c r="B127" t="e">
         <f>VLOOKUP(C127,table!B127:B275,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C127" s="14" t="str">
-        <f>LOWER(E127)</f>
+      <c r="C127" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>shelley corman</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F127" s="14"/>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6" hidden="1">
-      <c r="A128" s="14">
+      <c r="A128" s="11">
         <v>141</v>
       </c>
       <c r="B128" t="e">
         <f>VLOOKUP(C128,table!B128:B276,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C128" s="14" t="str">
-        <f>LOWER(E128)</f>
+      <c r="C128" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>stacey white</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D128" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="E128" s="14" t="s">
+      <c r="E128" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F128" s="14"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:6" hidden="1">
-      <c r="A129" s="14">
+      <c r="A129" s="11">
         <v>25</v>
       </c>
       <c r="B129" t="e">
         <f>VLOOKUP(C129,table!B129:B277,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C129" s="14" t="str">
-        <f>LOWER(E129)</f>
+      <c r="C129" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>stacy dickson</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E129" s="14" t="s">
+      <c r="E129" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F129" s="14"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" spans="1:6" hidden="1">
-      <c r="A130" s="14">
+      <c r="A130" s="11">
         <v>52</v>
       </c>
       <c r="B130" t="e">
         <f>VLOOKUP(C130,table!B130:B278,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C130" s="14" t="str">
-        <f>LOWER(E130)</f>
+      <c r="C130" s="11" t="str">
+        <f t="shared" ref="C130:C149" si="4">LOWER(E130)</f>
         <v>stanley horton</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E130" s="14" t="s">
+      <c r="E130" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F130" s="14"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6" hidden="1">
-      <c r="A131" s="14">
+      <c r="A131" s="11">
         <v>87</v>
       </c>
       <c r="B131" t="e">
         <f>VLOOKUP(C131,table!B131:B279,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C131" s="14" t="str">
-        <f>LOWER(E131)</f>
+      <c r="C131" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>stephanie panus</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F131" s="14"/>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6" hidden="1">
-      <c r="A132" s="14">
+      <c r="A132" s="11">
         <v>45</v>
       </c>
       <c r="B132" t="e">
         <f>VLOOKUP(C132,table!B132:B280,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C132" s="14" t="str">
-        <f>LOWER(E132)</f>
+      <c r="C132" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>steven harris</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F132" s="14"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:6" hidden="1">
-      <c r="A133" s="14">
+      <c r="A133" s="11">
         <v>57</v>
       </c>
       <c r="B133" t="e">
         <f>VLOOKUP(C133,table!B133:B281,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C133" s="14" t="str">
-        <f>LOWER(E133)</f>
+      <c r="C133" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>steven kean</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="E133" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F133" s="14"/>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6" hidden="1">
-      <c r="A134" s="14">
+      <c r="A134" s="11">
         <v>81</v>
       </c>
       <c r="B134" t="e">
         <f>VLOOKUP(C134,table!B134:B282,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C134" s="14" t="str">
-        <f>LOWER(E134)</f>
+      <c r="C134" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>steven merriss</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="F134" s="14"/>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" spans="1:6" hidden="1">
-      <c r="A135" s="14">
+      <c r="A135" s="11">
         <v>122</v>
       </c>
       <c r="B135" t="e">
         <f>VLOOKUP(C135,table!B135:B283,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C135" s="14" t="str">
-        <f>LOWER(E135)</f>
+      <c r="C135" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>steven south</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="11" t="s">
         <v>381</v>
       </c>
       <c r="E135" t="s">
         <v>106</v>
       </c>
-      <c r="F135" s="14"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" spans="1:6" hidden="1">
-      <c r="A136" s="14">
+      <c r="A136" s="11">
         <v>5</v>
       </c>
       <c r="B136" t="e">
         <f>VLOOKUP(C136,table!B136:B284,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C136" s="14" t="str">
-        <f>LOWER(E136)</f>
+      <c r="C136" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>susan bailey</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="D136" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E136" s="14" t="s">
+      <c r="E136" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F136" s="14"/>
+      <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:6" hidden="1">
-      <c r="A137" s="14">
+      <c r="A137" s="11">
         <v>89</v>
       </c>
       <c r="B137" t="e">
         <f>VLOOKUP(C137,table!B137:B285,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C137" s="14" t="str">
-        <f>LOWER(E137)</f>
+      <c r="C137" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>susan pereira</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D137" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F137" s="14"/>
+      <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:6" hidden="1">
-      <c r="A138" s="14">
+      <c r="A138" s="11">
         <v>112</v>
       </c>
       <c r="B138" t="e">
         <f>VLOOKUP(C138,table!B138:B286,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C138" s="14" t="str">
-        <f>LOWER(E138)</f>
+      <c r="C138" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>susan scott</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="D138" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="E138" s="14" t="s">
+      <c r="E138" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F138" s="14"/>
+      <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:6" hidden="1">
-      <c r="A139" s="14">
+      <c r="A139" s="11">
         <v>55</v>
       </c>
       <c r="B139" t="e">
         <f>VLOOKUP(C139,table!B139:B287,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C139" s="14" t="str">
-        <f>LOWER(E139)</f>
+      <c r="C139" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>tana jones</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F139" s="14"/>
+      <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:6" hidden="1">
-      <c r="A140" s="14">
+      <c r="A140" s="11">
         <v>69</v>
       </c>
       <c r="B140" t="e">
         <f>VLOOKUP(C140,table!B140:B288,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C140" s="14" t="str">
-        <f>LOWER(E140)</f>
+      <c r="C140" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>teb lokay</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="D140" s="11" t="s">
         <v>327</v>
       </c>
       <c r="E140" t="s">
         <v>35</v>
       </c>
-      <c r="F140" s="14"/>
+      <c r="F140" s="11"/>
     </row>
     <row r="141" spans="1:6" hidden="1">
-      <c r="A141" s="14">
+      <c r="A141" s="11">
         <v>123</v>
       </c>
       <c r="B141" t="e">
         <f>VLOOKUP(C141,table!B141:B289,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C141" s="14" t="str">
-        <f>LOWER(E141)</f>
+      <c r="C141" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>theresa staab</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="D141" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="E141" s="14" t="s">
+      <c r="E141" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F141" s="14"/>
+      <c r="F141" s="11"/>
     </row>
     <row r="142" spans="1:6" hidden="1">
-      <c r="A142" s="14">
+      <c r="A142" s="11">
         <v>74</v>
       </c>
       <c r="B142" t="e">
         <f>VLOOKUP(C142,table!B142:B290,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C142" s="14" t="str">
-        <f>LOWER(E142)</f>
+      <c r="C142" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>thomas martin</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="D142" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E142" s="14" t="s">
+      <c r="E142" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F142" s="14"/>
+      <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:6" hidden="1">
-      <c r="A143" s="14">
+      <c r="A143" s="11">
         <v>27</v>
       </c>
       <c r="B143" t="str">
         <f>VLOOKUP(C143,table!B143:B291,1,0)</f>
         <v>tom donohoe</v>
       </c>
-      <c r="C143" s="14" t="str">
-        <f>LOWER(E143)</f>
+      <c r="C143" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>tom donohoe</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D143" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F143" s="14"/>
+      <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:6" hidden="1">
-      <c r="A144" s="14">
+      <c r="A144" s="11">
         <v>62</v>
       </c>
       <c r="B144" t="e">
         <f>VLOOKUP(C144,table!B144:B292,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C144" s="14" t="str">
-        <f>LOWER(E144)</f>
+      <c r="C144" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>tori kuykendall</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="D144" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E144" s="14" t="s">
+      <c r="E144" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F144" s="14"/>
+      <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:6" hidden="1">
-      <c r="A145" s="14">
+      <c r="A145" s="11">
         <v>36</v>
       </c>
       <c r="B145" t="e">
         <f>VLOOKUP(C145,table!B145:B293,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C145" s="14" t="str">
-        <f>LOWER(E145)</f>
+      <c r="C145" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>tracy geaccone</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D145" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E145" s="14" t="s">
+      <c r="E145" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F145" s="14"/>
+      <c r="F145" s="11"/>
     </row>
     <row r="146" spans="1:6" hidden="1">
-      <c r="A146" s="14">
+      <c r="A146" s="11">
         <v>139</v>
       </c>
       <c r="B146" t="e">
         <f>VLOOKUP(C146,table!B146:B294,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C146" s="14" t="str">
-        <f>LOWER(E146)</f>
+      <c r="C146" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>charles weldon</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" s="11" t="s">
         <v>398</v>
       </c>
       <c r="E146" t="s">
         <v>226</v>
       </c>
-      <c r="F146" s="14"/>
+      <c r="F146" s="11"/>
     </row>
     <row r="147" spans="1:6" hidden="1">
-      <c r="A147" s="14">
+      <c r="A147" s="11">
         <v>56</v>
       </c>
       <c r="B147" t="e">
         <f>VLOOKUP(C147,table!B147:B295,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C147" s="14" t="str">
-        <f>LOWER(E147)</f>
+      <c r="C147" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>vince kaminski</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D147" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E147" s="14" t="s">
+      <c r="E147" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F147" s="14"/>
+      <c r="F147" s="11"/>
     </row>
     <row r="148" spans="1:6" hidden="1">
-      <c r="A148" s="14">
+      <c r="A148" s="11">
         <v>91</v>
       </c>
       <c r="B148" t="e">
         <f>VLOOKUP(C148,table!B148:B296,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C148" s="14" t="str">
-        <f>LOWER(E148)</f>
+      <c r="C148" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>vladi pimenov</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D148" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E148" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F148" s="14"/>
+      <c r="F148" s="11"/>
     </row>
     <row r="149" spans="1:6" hidden="1">
-      <c r="A149" s="14">
+      <c r="A149" s="11">
         <v>144</v>
       </c>
       <c r="B149" t="e">
         <f>VLOOKUP(C149,table!B149:B297,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C149" s="14" t="str">
-        <f>LOWER(E149)</f>
+      <c r="C149" s="11" t="str">
+        <f t="shared" si="4"/>
         <v>william williams iii</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="11" t="s">
         <v>404</v>
       </c>
     </row>
